--- a/drug_offences.xlsx
+++ b/drug_offences.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian Bøgelund\Documents\02806 Social Data\lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F740E403-C7E5-46BB-88EE-E64D05DBB8F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2ACFEA-BBF7-44A2-91F1-E1CA014415F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DLO-01-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,9 +80,6 @@
     <t>Ireland</t>
   </si>
   <si>
-    <t>Italy *</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -119,6 +126,9 @@
   </si>
   <si>
     <t>(1) Italy: Italy: Offenders</t>
+  </si>
+  <si>
+    <t>Italy</t>
   </si>
 </sst>
 </file>
@@ -494,7 +504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1160,7 +1172,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>75023</v>
@@ -1204,7 +1216,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>4445</v>
@@ -1248,7 +1260,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>3218</v>
@@ -1292,7 +1304,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>2284</v>
@@ -1336,7 +1348,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>626</v>
@@ -1380,7 +1392,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>18064</v>
@@ -1424,7 +1436,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>31633</v>
@@ -1468,7 +1480,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>30873</v>
@@ -1512,7 +1524,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>12901</v>
@@ -1556,7 +1568,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>8487</v>
@@ -1600,7 +1612,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -1644,7 +1656,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -1685,7 +1697,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>395233</v>
@@ -1729,7 +1741,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>106521</v>
@@ -1773,7 +1785,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>144819</v>
@@ -1817,7 +1829,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -1866,7 +1878,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
